--- a/Datasets/Cyton datasets/Cyton_rms_dataset.xlsx
+++ b/Datasets/Cyton datasets/Cyton_rms_dataset.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,13 +10,13 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF731EC-253B-4F80-B2A0-EF376B7093BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="900" windowWidth="18900" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4605" yWindow="900" windowWidth="18900" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -36,7 +36,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -44,12 +44,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,4568 +366,5880 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A136" workbookViewId="0">
       <selection activeCell="N149" sqref="N149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="2.140625" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" s="0">
         <v>14.190575859878388</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="0">
         <v>12.700831314240212</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="0">
         <v>12.606279687563658</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="0">
         <v>12.336429542048766</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="0">
         <v>11.943195057244703</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="0">
         <v>12.436043535409711</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="0">
         <v>12.576569980104292</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="0">
         <v>12.25458931929451</v>
       </c>
-      <c r="I1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
+      <c r="I1" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
         <v>14.066102201236982</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>12.577571706332074</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>12.511275729628728</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>12.347543156060881</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>12.142812825134182</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>12.454400980091128</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>12.624331241130712</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>12.407931488156466</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
         <v>14.161151132410859</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>12.577269734772953</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>12.517468168427115</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>12.397848016279736</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>12.186412609423115</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>12.466427659606673</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>12.674433799436418</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>12.381187860477743</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
+      <c r="I3" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
         <v>14.107598655727095</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>12.584031679626545</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>12.57683717553787</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>12.444687012490594</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>11.916562735900401</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>12.553695838362673</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>12.74134762703595</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>12.356363768581138</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
         <v>14.18276837600817</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>12.711461680886172</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>12.78577748895232</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>12.488252863537577</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>11.983884478096792</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>12.673425258100641</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>12.853005535430306</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>12.417341064468669</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
+      <c r="I5" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
         <v>14.955457378215705</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>13.139734991266941</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>13.110846693669302</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>13.094821095950122</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>12.460103438990547</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>13.343680143390484</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>13.453998786384927</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>12.956774487887584</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
         <v>14.942468777746498</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>13.180171434784974</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>13.098194127872507</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>13.133795745761271</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>12.489528084625592</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>13.313158300715585</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>13.423935751350298</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>13.009673012924056</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
+      <c r="I7" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
         <v>14.906043182967805</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>13.186118705470642</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>13.137160144065689</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>13.188866099529889</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>12.502018842399943</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>13.371716400021246</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>13.49641497824557</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>12.991068838248099</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
         <v>15.052913923622633</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>13.265015818668443</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>13.253060734552031</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>13.314395860009547</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>12.640469742100755</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>13.454260603054127</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>13.5994469883547</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>13.085818669789141</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
+      <c r="I9" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
         <v>15.176892506097435</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>13.29823185294341</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>13.246381408265705</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>13.362044934077714</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>12.646356077335447</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>13.516569245603678</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>13.629914165204939</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>13.196449083009156</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
         <v>15.127612426584388</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>13.508180895572441</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>13.409761002049695</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>13.520619295075791</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>12.856719325584358</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>13.607635047818775</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>13.787888726518045</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>13.254156719782584</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
+      <c r="I11" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
         <v>15.151515868639381</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>13.603751027675282</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <v>13.582902842888831</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0">
         <v>13.54355114408563</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>12.914610116479176</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>13.652482601741925</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0">
         <v>13.795210265812873</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>13.325533856163014</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
         <v>15.214455898380985</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>13.473167086607736</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0">
         <v>13.406576837232695</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0">
         <v>13.583158051948669</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>12.73995564799603</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>13.652703075230006</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0">
         <v>13.804107456928149</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>13.379845148657553</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
+      <c r="I13" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
         <v>15.207606189447279</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>13.853303958640813</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0">
         <v>13.772322334058236</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0">
         <v>13.930797860478565</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>13.109264143202202</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>13.974827122580987</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="0">
         <v>14.199552797125104</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <v>13.722304726078351</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
+      <c r="I14" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
         <v>15.169389911080938</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>13.947795048945061</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0">
         <v>13.986827125706036</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0">
         <v>14.149920536749891</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>13.259345179826925</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>14.106896093655759</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0">
         <v>14.361686852759979</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>13.892143392965931</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
         <v>15.259025522558016</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>14.045489934287303</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>14.041573757012435</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>14.138187260414723</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>13.306905358221725</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>14.119529317696282</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="0">
         <v>14.396397474296084</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <v>13.884148482975769</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
+      <c r="I16" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
         <v>15.293717062520859</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>14.009951304451759</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0">
         <v>14.018112946178507</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0">
         <v>14.111298164890188</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
         <v>13.257876804126079</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>14.103813993944899</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0">
         <v>14.347294050273542</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <v>13.911153234990842</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
         <v>15.557397794148978</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>14.325843490498071</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>14.415220366358117</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0">
         <v>14.433572300226727</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0">
         <v>13.599177238595656</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>14.323026563060406</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0">
         <v>14.730567277278954</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>14.276681830626929</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19">
+      <c r="I18" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
         <v>16.491799181972301</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>15.237958875400967</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0">
         <v>15.292184773167071</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0">
         <v>15.487519374704556</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>42.854653650765059</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>15.257447194852324</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0">
         <v>15.69022338956955</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <v>16.657861041076895</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20">
+      <c r="I19" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
         <v>15.788495367812404</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0">
         <v>15.061063860319779</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0">
         <v>15.181929380933635</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0">
         <v>15.37363922967036</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0">
         <v>14.606279886697276</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>15.078760632283903</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0">
         <v>15.518860458757889</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <v>15.498821372106724</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21">
+      <c r="I20" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
         <v>16.014114255594762</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>15.443694086473124</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0">
         <v>15.589858341720076</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0">
         <v>15.609335953620413</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0">
         <v>14.685896103639909</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>15.348767935159522</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0">
         <v>15.790075825643259</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <v>15.364216327408775</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22">
+      <c r="I21" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
         <v>15.785166161577406</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0">
         <v>15.248178665529766</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0">
         <v>15.738427079884429</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0">
         <v>15.504597163213004</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0">
         <v>14.771044153188544</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>15.200587102585647</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0">
         <v>16.23266755529416</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0">
         <v>15.534373969693855</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23">
+      <c r="I22" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
         <v>15.75742339072413</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0">
         <v>15.299428895665876</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0">
         <v>15.46162844710982</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0">
         <v>15.530760911920474</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0">
         <v>14.520587129734061</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>15.256780521988368</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="0">
         <v>15.727089755036216</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="0">
         <v>15.353083230024975</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24">
+      <c r="I23" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
         <v>15.854965239002771</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0">
         <v>15.690566469196574</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0">
         <v>16.664676104379275</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0">
         <v>16.976767368173579</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
         <v>22.037663697980907</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>15.662751848475317</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="0">
         <v>16.722572899396155</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="0">
         <v>20.794672055767805</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25">
+      <c r="I24" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
         <v>15.886719704055514</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0">
         <v>15.833642243069889</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0">
         <v>16.022475901454662</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0">
         <v>16.173760466278576</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>15.166417815001424</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>15.816252743968951</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="0">
         <v>16.277212840267385</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="0">
         <v>16.006590413848627</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26">
+      <c r="I25" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
         <v>15.868302236401927</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0">
         <v>15.93456479875349</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0">
         <v>16.233509134924613</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0">
         <v>16.326642392023697</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0">
         <v>15.29683107589633</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>16.016925324292828</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0">
         <v>16.454513082940906</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="0">
         <v>16.091218625548546</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27">
+      <c r="I26" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
         <v>15.813834399575523</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0">
         <v>15.978543775973076</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0">
         <v>16.2422452396513</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0">
         <v>16.315225699725104</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0">
         <v>15.263059180838216</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0">
         <v>15.963570665042509</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="0">
         <v>16.423584063757225</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="0">
         <v>16.07746991179356</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28">
+      <c r="I27" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
         <v>15.957041743873804</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0">
         <v>16.046565217665204</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0">
         <v>16.268003968742818</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0">
         <v>16.383720852405524</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0">
         <v>15.527023881092081</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0">
         <v>16.064290587690035</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="0">
         <v>16.548457065035304</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="0">
         <v>16.226204411013974</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29">
+      <c r="I28" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
         <v>15.836759820850482</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0">
         <v>16.038040211136526</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0">
         <v>16.316047533273355</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0">
         <v>16.392514283812975</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0">
         <v>15.626246298552891</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0">
         <v>16.106238225783361</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="0">
         <v>16.598345068830934</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="0">
         <v>16.311045557545395</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30">
+      <c r="I29" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
         <v>15.879365812232201</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0">
         <v>16.169883868520184</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0">
         <v>16.400912637259061</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0">
         <v>16.549676588498716</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0">
         <v>15.456621498976887</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0">
         <v>16.213663355093868</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="0">
         <v>16.594093397962251</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="0">
         <v>16.307764033841153</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31">
+      <c r="I30" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
         <v>15.988050933441421</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0">
         <v>16.393868690304078</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0">
         <v>16.590485476184078</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0">
         <v>16.732028334773872</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
         <v>15.891942196935158</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0">
         <v>16.417781601405753</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="0">
         <v>16.86745952792084</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="0">
         <v>16.569980325038777</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32">
+      <c r="I31" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
         <v>15.925936715236338</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0">
         <v>16.276922168693069</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0">
         <v>16.57870070344816</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0">
         <v>16.664379629157608</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0">
         <v>15.604151564397096</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="0">
         <v>16.368235298287541</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="0">
         <v>16.804436526948539</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="0">
         <v>16.460790684203374</v>
       </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33">
+      <c r="I32" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
         <v>11.021722828551738</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0">
         <v>18.304359993934451</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0">
         <v>25.718924535988158</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34">
+      <c r="I33" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
         <v>10.864979462070661</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0">
         <v>37.226583482501574</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35">
+      <c r="I34" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
         <v>11.142858499654139</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0">
         <v>25.581591716432129</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36">
+      <c r="I35" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
         <v>11.268731747945267</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37">
+      <c r="I36" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
         <v>11.375961709426385</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38">
+      <c r="I37" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
         <v>11.685056824366844</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39">
+      <c r="I38" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
         <v>11.693192755910708</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40">
+      <c r="I39" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
         <v>12.768785621917765</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41">
+      <c r="I40" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
         <v>12.027215879276971</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0">
         <v>18.304222272686825</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0">
         <v>18.304222272686825</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0">
         <v>18.304222272686825</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0">
         <v>18.304222272686825</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="0">
         <v>18.304222272686825</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="0">
         <v>18.304222272686825</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="0">
         <v>18.304222272686825</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42">
+      <c r="I41" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
         <v>12.178301113017664</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0">
         <v>18.304361967197334</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0">
         <v>18.304361967197334</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0">
         <v>18.304361967197334</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0">
         <v>18.304361967197334</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="0">
         <v>18.304361967197334</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="0">
         <v>18.304361967197334</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="0">
         <v>18.304361967197334</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43">
+      <c r="I42" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
         <v>12.295108777674503</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44">
+      <c r="I43" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
         <v>12.534216560977619</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45">
+      <c r="I44" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
         <v>12.394488469131883</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46">
+      <c r="I45" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
         <v>12.431835819902838</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47">
+      <c r="I46" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
         <v>12.508638347353237</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48">
+      <c r="I47" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
         <v>12.785049426880301</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49">
+      <c r="I48" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
         <v>12.674904333405124</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50">
+      <c r="I49" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
         <v>12.983358777359157</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0">
         <v>18.304058597053022</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0">
         <v>18.304058597053022</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0">
         <v>18.304058597053022</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0">
         <v>18.355618773025096</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0">
         <v>18.304058597053022</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="0">
         <v>18.304058597053022</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="0">
         <v>18.304058597053022</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51">
+      <c r="I50" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
         <v>14.527001794727067</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0">
         <v>18.002983888131663</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0">
         <v>18.448743106653303</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0">
         <v>28.357687976910114</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0">
         <v>17.465116092362521</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="0">
         <v>17.970912448682633</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="0">
         <v>18.249948840555923</v>
       </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52">
+      <c r="I51" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
         <v>14.525822846211662</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0">
         <v>17.863926285639725</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0">
         <v>18.329707645978775</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0">
         <v>28.490841367065681</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0">
         <v>17.387640400502896</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="0">
         <v>17.926110829721633</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="0">
         <v>18.168143760837509</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53">
+      <c r="I52" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
         <v>14.612893526869499</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0">
         <v>17.903153015375782</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0">
         <v>18.414529583477673</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0">
         <v>27.594272850499902</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0">
         <v>17.463577961894913</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="0">
         <v>17.978490630540833</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="0">
         <v>18.144299599394216</v>
       </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54">
+      <c r="I53" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
         <v>14.620152839059575</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0">
         <v>17.842435449727944</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0">
         <v>18.34690758978277</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0">
         <v>29.031803720271974</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0">
         <v>17.377676875800066</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="0">
         <v>17.882397042777221</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="0">
         <v>18.12984578086899</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55">
+      <c r="I54" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
         <v>14.771572536606586</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0">
         <v>17.916207527475056</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0">
         <v>18.46661453816176</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0">
         <v>25.176772244112186</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0">
         <v>17.520991197662543</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="0">
         <v>17.957519303354715</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="0">
         <v>18.128138539154222</v>
       </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56">
+      <c r="I55" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
         <v>14.831054539780975</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0">
         <v>17.850453820315657</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0">
         <v>18.371867047371069</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0">
         <v>18.475309866273744</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0">
         <v>17.465330171231273</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="0">
         <v>17.909884552899747</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="0">
         <v>18.30436196719733</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="0">
         <v>18.123044364562144</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57">
+      <c r="I56" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
         <v>14.92990890035213</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0">
         <v>17.853669436694691</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0">
         <v>18.422879012295347</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0">
         <v>18.427134314249422</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0">
         <v>17.519310292814275</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="0">
         <v>18.002733701143089</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="0">
         <v>18.128197065028118</v>
       </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58">
+      <c r="I57" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
         <v>14.958477018508439</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0">
         <v>17.855492596410418</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0">
         <v>18.471639579434889</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0">
         <v>18.455645237864822</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0">
         <v>17.583896072745187</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="0">
         <v>17.973897412871299</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="0">
         <v>18.304361967197337</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="0">
         <v>18.142298911699793</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59">
+      <c r="I58" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
         <v>14.950912258099564</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0">
         <v>17.753497775080625</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0">
         <v>18.396046671131252</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0">
         <v>18.385687693648109</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0">
         <v>17.513784478429571</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="0">
         <v>17.89704182526042</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="0">
         <v>18.304222219892026</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="0">
         <v>18.074692393979472</v>
       </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60">
+      <c r="I59" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
         <v>15.96756973621491</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0">
         <v>17.15546332730505</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0">
         <v>17.856247460536103</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0">
         <v>18.145489999887857</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0">
         <v>17.081491903553257</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="0">
         <v>17.357051757656048</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="0">
         <v>18.115718559007586</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="0">
         <v>17.762945745505153</v>
       </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61">
+      <c r="I60" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
         <v>16.280660910889534</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0">
         <v>17.25068295370469</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0">
         <v>17.873783640907295</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0">
         <v>17.927096756510789</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="0">
         <v>17.122910222052592</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="0">
         <v>17.402273355263549</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="0">
         <v>18.191919127085097</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="0">
         <v>17.71883749641098</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62">
+      <c r="I61" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
         <v>16.25046436100023</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0">
         <v>16.866288843086483</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0">
         <v>17.497037360129731</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="0">
         <v>17.492355740073052</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0">
         <v>16.768856927589404</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="0">
         <v>17.011318932886958</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="0">
         <v>17.818344111141879</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="0">
         <v>17.267363814434461</v>
       </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63">
+      <c r="I62" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
         <v>16.457451419155124</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0">
         <v>16.786615978968292</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0">
         <v>17.432599928284919</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="0">
         <v>17.4570283118831</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="0">
         <v>16.708028971042683</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="0">
         <v>16.989499935815605</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="0">
         <v>17.749711778773833</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="0">
         <v>17.256916470873676</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64">
+      <c r="I63" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
         <v>16.511685262102379</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0">
         <v>16.756892848929343</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0">
         <v>17.409306698164098</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0">
         <v>17.425206973538671</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="0">
         <v>16.709408591868218</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="0">
         <v>16.872699904034089</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="0">
         <v>17.658689063064465</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="0">
         <v>17.148810973495504</v>
       </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65">
+      <c r="I64" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
         <v>16.584769255482289</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0">
         <v>16.840042955919944</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0">
         <v>17.487024092994599</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0">
         <v>17.422026980381364</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0">
         <v>16.752962792126496</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="0">
         <v>17.02474996401547</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="0">
         <v>17.729011780572996</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="0">
         <v>17.097655298601357</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66">
+      <c r="I65" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
         <v>16.689826786028316</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0">
         <v>16.760414422447649</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0">
         <v>17.504475348297241</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0">
         <v>17.380282363613976</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="0">
         <v>16.733544052744417</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="0">
         <v>17.039537181437172</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="0">
         <v>17.764316984996626</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="0">
         <v>17.077949726616435</v>
       </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67">
+      <c r="I66" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
         <v>16.723353256809926</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0">
         <v>16.65185796805919</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0">
         <v>17.654073757098548</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="0">
         <v>17.277770219232298</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="0">
         <v>16.740731936250146</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="0">
         <v>16.820498525608258</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="0">
         <v>17.747808584480605</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="0">
         <v>17.003290392494918</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68">
+      <c r="I67" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
         <v>16.825713966687335</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0">
         <v>16.727764422118746</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0">
         <v>17.358278315011685</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0">
         <v>17.270968055404399</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="0">
         <v>16.641111320944162</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="0">
         <v>16.814363250538545</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="0">
         <v>17.537464471613603</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="0">
         <v>16.986012968361436</v>
       </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69">
+      <c r="I68" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
         <v>17.079958596204747</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0">
         <v>16.513809944834904</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0">
         <v>17.187377183688366</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="0">
         <v>17.230008559009864</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="0">
         <v>16.513510064730532</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="0">
         <v>16.696151048750895</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="0">
         <v>17.427265327190128</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="0">
         <v>16.886360113827603</v>
       </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70">
+      <c r="I69" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
         <v>17.133298029289552</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0">
         <v>16.529654637085056</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0">
         <v>17.181563727647873</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="0">
         <v>17.152800526147441</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="0">
         <v>16.514067761892353</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="0">
         <v>16.679766476271549</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="0">
         <v>17.376466735541431</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="0">
         <v>16.856954229030197</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71">
+      <c r="I70" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
         <v>17.216702694512357</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0">
         <v>16.492875630180993</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0">
         <v>17.271567336280153</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="0">
         <v>17.125925459519216</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="0">
         <v>16.57066956455758</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="0">
         <v>16.680293644546136</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="0">
         <v>17.440544363729295</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="0">
         <v>16.802698961960093</v>
       </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72">
+      <c r="I71" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
         <v>17.279831957528973</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0">
         <v>16.40750874463787</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="0">
         <v>17.125321429277459</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="0">
         <v>17.09504896966007</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="0">
         <v>16.455863991720175</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="0">
         <v>16.620966742708294</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="0">
         <v>17.318015737280742</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="0">
         <v>16.77639986148089</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73">
+      <c r="I72" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
         <v>17.415419816585416</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0">
         <v>16.517330244397627</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="0">
         <v>17.16327533851528</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="0">
         <v>17.15765295484865</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="0">
         <v>16.501308347893072</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="0">
         <v>16.683404280703563</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="0">
         <v>17.383039010113713</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="0">
         <v>16.849085119967516</v>
       </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74">
+      <c r="I73" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
         <v>17.468044017117567</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0">
         <v>16.347542418931237</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="0">
         <v>17.078396790549125</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="0">
         <v>17.022168095465204</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="0">
         <v>16.398353240760439</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="0">
         <v>16.568504436211612</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="0">
         <v>17.277319634035621</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="0">
         <v>16.725961509796004</v>
       </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75">
+      <c r="I74" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
         <v>17.53656836001695</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0">
         <v>16.452099493614515</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="0">
         <v>17.18804735661281</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="0">
         <v>17.150938523625445</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="0">
         <v>16.526090785777466</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="0">
         <v>16.627151971262862</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="0">
         <v>17.344240702097235</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="0">
         <v>16.789059551848602</v>
       </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76">
+      <c r="I75" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
         <v>17.656360906819245</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0">
         <v>16.438500797655426</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="0">
         <v>17.25070652686847</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="0">
         <v>17.168013005867586</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="0">
         <v>16.58391567977543</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="0">
         <v>16.68034712159692</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="0">
         <v>17.388656826057936</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="0">
         <v>16.770186276198174</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77">
+      <c r="I76" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
         <v>17.670334912389372</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0">
         <v>16.405872121538088</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="0">
         <v>17.161929703924663</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="0">
         <v>17.115550469918531</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="0">
         <v>16.493028505262846</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="0">
         <v>16.576162805033729</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="0">
         <v>17.303361834932435</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="0">
         <v>16.719026134032244</v>
       </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78">
+      <c r="I77" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
         <v>10.284358657847905</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0">
         <v>7.2136527788126665</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="0">
         <v>9.3796274700959259</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="0">
         <v>8.8085663171136712</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="0">
         <v>8.4286661986092266</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="0">
         <v>6.6032134389882948</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="0">
         <v>8.0077264099997727</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="0">
         <v>10.52308787266464</v>
       </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79">
+      <c r="I78" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
         <v>10.106137797565777</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0">
         <v>7.021909435783197</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="0">
         <v>9.2865128076063002</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="0">
         <v>8.8254349943375221</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="0">
         <v>8.4068353694749902</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="0">
         <v>6.621924688150914</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="0">
         <v>7.9261443493062176</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="0">
         <v>8.5017530604547922</v>
       </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80">
+      <c r="I79" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
         <v>10.266595571579984</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0">
         <v>7.1410000682839314</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="0">
         <v>9.409408294934293</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="0">
         <v>8.9113139548882003</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="0">
         <v>8.6195490197461311</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="0">
         <v>6.8098695765511552</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="0">
         <v>8.0469200596296933</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="0">
         <v>7.7375131890520485</v>
       </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81">
+      <c r="I80" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
         <v>10.232450448954452</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0">
         <v>7.1301390158571687</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="0">
         <v>9.4958479364999739</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="0">
         <v>8.962950851942427</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="0">
         <v>8.6160524875227278</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="0">
         <v>6.8650586277546095</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="0">
         <v>8.1625705568383609</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="0">
         <v>7.7855086671762956</v>
       </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82">
+      <c r="I81" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
         <v>10.4354242109062</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0">
         <v>7.2770262963353529</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="0">
         <v>9.5554798585432117</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="0">
         <v>9.0731221714500396</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="0">
         <v>8.8078335592093797</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="0">
         <v>6.962078846957958</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="0">
         <v>8.2405292277907929</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="0">
         <v>8.1572215459130586</v>
       </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83">
+      <c r="I82" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
         <v>10.263683348737368</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0">
         <v>7.1684642502781335</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="0">
         <v>9.5418441008825692</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="0">
         <v>9.113026263073575</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="0">
         <v>8.686427446121451</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="0">
         <v>7.0585195545172343</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="0">
         <v>8.2230991706048151</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="0">
         <v>7.7105960311821136</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84">
+      <c r="I83" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0">
         <v>10.414401586401073</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0">
         <v>7.2749569531516558</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="0">
         <v>9.5817524958787743</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="0">
         <v>9.2007296317798311</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="0">
         <v>8.7830855770798859</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="0">
         <v>7.0653774221626788</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="0">
         <v>8.3331147573452675</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="0">
         <v>7.7858727109491754</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85">
+      <c r="I84" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0">
         <v>10.368793973700775</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0">
         <v>7.2597610704043909</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="0">
         <v>9.6548070222617834</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="0">
         <v>9.1919789679927089</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="0">
         <v>8.8038055145207146</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="0">
         <v>7.1469698500942549</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="0">
         <v>8.3063137685244239</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="0">
         <v>7.6326446528974019</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86">
+      <c r="I85" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0">
         <v>10.42501719145058</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0">
         <v>7.2899762644172519</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="0">
         <v>9.6879952512445726</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="0">
         <v>9.2219450558342047</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="0">
         <v>8.8233326823377816</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="0">
         <v>7.1647311893472887</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="0">
         <v>8.3467114508885984</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="0">
         <v>7.6398018560739738</v>
       </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87">
+      <c r="I86" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0">
         <v>10.752682292502231</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0">
         <v>7.4777511090484357</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="0">
         <v>9.8326103614599418</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="0">
         <v>9.4293896784633215</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="0">
         <v>9.096832357292536</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="0">
         <v>7.3833050215000053</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="0">
         <v>8.5102777501542697</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="0">
         <v>7.7921881875814378</v>
       </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88">
+      <c r="I87" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0">
         <v>10.642649902484205</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0">
         <v>7.4947885718278169</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="0">
         <v>9.997027526937039</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="0">
         <v>9.4957184499469349</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="0">
         <v>9.1340084798889993</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="0">
         <v>7.4276209217754996</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="0">
         <v>8.5508849554828856</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="0">
         <v>7.9042203679777421</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89">
+      <c r="I88" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0">
         <v>10.799169236420738</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0">
         <v>7.5600298870082652</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="0">
         <v>9.968329662824452</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="0">
         <v>9.5211287817321342</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="0">
         <v>9.1017766632622692</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="0">
         <v>7.4878446890878383</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="0">
         <v>8.6845324626301537</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="0">
         <v>7.9413915832286666</v>
       </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90">
+      <c r="I89" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0">
         <v>10.741988644335104</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0">
         <v>7.3797940283029799</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="0">
         <v>9.8497141658599432</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="0">
         <v>9.5554678129309174</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="0">
         <v>9.1110987990370838</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="0">
         <v>7.5371603808228214</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="0">
         <v>8.6432113587307491</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="0">
         <v>7.9109386731516489</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91">
+      <c r="I90" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0">
         <v>10.811888191599632</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0">
         <v>7.5498367384491676</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="0">
         <v>10.089655793318624</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="0">
         <v>9.6497731389238819</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="0">
         <v>9.2855045070193789</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="0">
         <v>7.6251154164118642</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="0">
         <v>8.825679146164509</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="0">
         <v>8.1081957144902095</v>
       </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92">
+      <c r="I91" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0">
         <v>10.775678317594499</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0">
         <v>7.487816095284141</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="0">
         <v>10.012272608088976</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="0">
         <v>9.6651542879060131</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="0">
         <v>9.2346898126430457</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="0">
         <v>7.6678298767003223</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="0">
         <v>8.7512674988841699</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="0">
         <v>8.3182806237515479</v>
       </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93">
+      <c r="I92" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0">
         <v>11.189318554357673</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0">
         <v>7.6026048789747751</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="0">
         <v>10.217810241818372</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="0">
         <v>9.7898927162963094</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="0">
         <v>9.3521757753296999</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="0">
         <v>7.750466049563915</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="0">
         <v>8.8779781872269474</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="0">
         <v>8.2931160240657089</v>
       </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94">
+      <c r="I93" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0">
         <v>10.917905358491673</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0">
         <v>7.5855064760047828</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="0">
         <v>10.073901496154988</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="0">
         <v>9.7908423818927321</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="0">
         <v>9.3093973552820515</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="0">
         <v>7.8156352535719531</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="0">
         <v>8.9243073380435654</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="0">
         <v>8.2776547312760371</v>
       </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95">
+      <c r="I94" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0">
         <v>11.051285640987711</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0">
         <v>7.7800830246129813</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="0">
         <v>10.230100755353918</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="0">
         <v>9.8829197474702006</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="0">
         <v>9.414257857255766</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="0">
         <v>7.9142067823491065</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="0">
         <v>9.0064308151660768</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="0">
         <v>8.3174575666682138</v>
       </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96">
+      <c r="I95" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0">
         <v>11.282536682421378</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0">
         <v>7.8061566099830246</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="0">
         <v>10.264614099558306</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="0">
         <v>9.9952479835893211</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="0">
         <v>9.5237163294364056</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="0">
         <v>8.0462075523219809</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="0">
         <v>9.1020099364608509</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="0">
         <v>8.2911311670957311</v>
       </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97">
+      <c r="I96" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
         <v>11.281984283058593</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0">
         <v>7.8278446810006663</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="0">
         <v>10.346490849002594</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="0">
         <v>10.073374990182115</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="0">
         <v>9.6311953586712686</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="0">
         <v>8.1375488195716059</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="0">
         <v>9.1536531019462561</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="0">
         <v>8.3995197817853757</v>
       </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98">
+      <c r="I97" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
         <v>11.555626760725346</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="0">
         <v>8.1400788402740307</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="0">
         <v>10.417980096563886</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="0">
         <v>10.238339483002358</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="0">
         <v>9.8164952823306564</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="0">
         <v>8.2034500159460553</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="0">
         <v>9.2116757405793699</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="0">
         <v>8.402427021961774</v>
       </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99">
+      <c r="I98" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
         <v>11.372928251425778</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0">
         <v>7.9303441260005503</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="0">
         <v>10.523313826765204</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="0">
         <v>10.17792470492412</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="0">
         <v>9.7380471903534769</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="0">
         <v>8.2479164075890559</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="0">
         <v>9.3135881191234606</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="0">
         <v>8.6462897882693657</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100">
+      <c r="I99" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
         <v>11.601808512824354</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0">
         <v>8.7958181923474168</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="0">
         <v>10.727241139225869</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="0">
         <v>10.309591397366701</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="0">
         <v>9.9496700771022262</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="0">
         <v>8.6002019753076731</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="0">
         <v>9.3971452055750273</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="0">
         <v>8.6305528255609669</v>
       </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101">
+      <c r="I100" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0">
         <v>11.521860192991912</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="0">
         <v>8.0539270624741945</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="0">
         <v>10.630132342380644</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="0">
         <v>10.298349123480552</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="0">
         <v>9.7992798970835349</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="0">
         <v>8.4072122097053867</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="0">
         <v>9.4580634594247623</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="0">
         <v>8.8200808898594723</v>
       </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102">
+      <c r="I101" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0">
         <v>11.69109998425818</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="0">
         <v>8.0939796206066212</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="0">
         <v>10.653916476657368</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="0">
         <v>10.36587057520128</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="0">
         <v>9.9723648139026064</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="0">
         <v>8.4768059596736194</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="0">
         <v>9.4742989636164623</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="0">
         <v>8.8536125650286834</v>
       </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103">
+      <c r="I102" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0">
         <v>11.669359413116918</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="0">
         <v>8.2052349997739462</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="0">
         <v>10.745378030203746</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="0">
         <v>10.451829510763442</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="0">
         <v>9.9847323769572842</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="0">
         <v>8.6038955738027934</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="0">
         <v>9.6641955085055695</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="0">
         <v>9.0008822777789845</v>
       </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104">
+      <c r="I103" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0">
         <v>11.746806184576862</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="0">
         <v>8.2365773658762738</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="0">
         <v>10.750697597739647</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="0">
         <v>10.494173916979678</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="0">
         <v>9.9734531617887114</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="0">
         <v>8.5956916106012002</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="0">
         <v>9.5972328357087076</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="0">
         <v>9.0640413059539497</v>
       </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105">
+      <c r="I104" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0">
         <v>12.328393976648128</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="0">
         <v>8.6779889378729838</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="0">
         <v>10.99005641246274</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="0">
         <v>10.673315664659841</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="0">
         <v>10.194411256000565</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="0">
         <v>8.941996814397795</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="0">
         <v>9.8272254165767663</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="0">
         <v>8.9500802401133086</v>
       </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106">
+      <c r="I105" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0">
         <v>13.076349612067947</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="0">
         <v>9.0779547896400974</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="0">
         <v>11.349667309033661</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="0">
         <v>11.184973009195236</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="0">
         <v>10.70634210205213</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="0">
         <v>9.3774882290298898</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="0">
         <v>10.262064839375439</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="0">
         <v>9.1363928637890428</v>
       </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107">
+      <c r="I106" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
         <v>12.899743751559544</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="0">
         <v>8.9328635334234434</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="0">
         <v>11.375816435213867</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="0">
         <v>11.152542406861038</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="0">
         <v>10.627056885028214</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="0">
         <v>9.3892822529188624</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="0">
         <v>10.345657329867242</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="0">
         <v>9.3202091705212151</v>
       </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108">
+      <c r="I107" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0">
         <v>13.219043333173058</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="0">
         <v>9.0420044447125143</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="0">
         <v>11.467690872757217</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="0">
         <v>11.230922568588477</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="0">
         <v>10.745308038566144</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="0">
         <v>9.4595823740605436</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="0">
         <v>10.474060053889954</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="0">
         <v>9.0603171824202917</v>
       </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109">
+      <c r="I108" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0">
         <v>13.103695067726472</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="0">
         <v>9.0579824554019623</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="0">
         <v>11.455414500752838</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="0">
         <v>11.283748627607066</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="0">
         <v>10.717143531806897</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="0">
         <v>9.4424101773655593</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="0">
         <v>10.403215719975218</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="0">
         <v>9.1093958681230927</v>
       </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110">
+      <c r="I109" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0">
         <v>13.440774379560269</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="0">
         <v>10.26392470653553</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="0">
         <v>11.676850395340555</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="0">
         <v>11.485965180572501</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="0">
         <v>11.032977009994809</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="0">
         <v>9.7797208018797583</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="0">
         <v>10.552472003685132</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="0">
         <v>9.111243144984158</v>
       </c>
-      <c r="I110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111">
+      <c r="I110" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0">
         <v>13.134834590032249</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="0">
         <v>9.0932194968903968</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="0">
         <v>11.552440708524371</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="0">
         <v>11.326576896886239</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="0">
         <v>10.773987604079794</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="0">
         <v>9.5400898913653087</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="0">
         <v>10.520001204287801</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="0">
         <v>8.9227400376405619</v>
       </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112">
+      <c r="I111" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0">
         <v>13.204776676770324</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="0">
         <v>9.1975146544454169</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="0">
         <v>11.642508525928362</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="0">
         <v>11.40640968626964</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="0">
         <v>10.848811130269755</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="0">
         <v>9.5958212908158682</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="0">
         <v>10.551292748610066</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="0">
         <v>9.153480879711525</v>
       </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113">
+      <c r="I112" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0">
         <v>13.259133383124828</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="0">
         <v>9.1723465399789532</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="0">
         <v>11.59671693121212</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="0">
         <v>11.455289455162145</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="0">
         <v>10.839551512835987</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="0">
         <v>9.634681658687148</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="0">
         <v>10.577390993899058</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="0">
         <v>9.262189698019597</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114">
+      <c r="I113" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0">
         <v>13.441126989944705</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="0">
         <v>9.2668825009935496</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="0">
         <v>11.690870201811993</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="0">
         <v>11.483593461607624</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="0">
         <v>10.946339079066167</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="0">
         <v>9.7090748207186106</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="0">
         <v>10.660075583302406</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="0">
         <v>9.1810756778057474</v>
       </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115">
+      <c r="I114" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0">
         <v>8.5297755987874186</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="0">
         <v>5.1594649917958337</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="0">
         <v>6.0132552509834243</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="0">
         <v>5.4766858405322667</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="0">
         <v>5.8450939564193867</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="0">
         <v>4.4193709983350722</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="0">
         <v>5.208541367072252</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="0">
         <v>4.9335265346970543</v>
       </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116">
+      <c r="I115" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0">
         <v>8.1222829225808706</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="0">
         <v>5.0855398513354917</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="0">
         <v>6.075795828153872</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="0">
         <v>5.4976820362992171</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="0">
         <v>5.7920826960381486</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="0">
         <v>4.3456045463477455</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="0">
         <v>5.2759136774439215</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="0">
         <v>4.8507668285476786</v>
       </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117">
+      <c r="I116" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0">
         <v>8.101084010523202</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="0">
         <v>5.2537850378037581</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="0">
         <v>6.2695493998374827</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="0">
         <v>5.5367859025315083</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="0">
         <v>5.9631565787990102</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="0">
         <v>4.433475798052724</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="0">
         <v>5.5405193790926193</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="0">
         <v>4.9514340276481779</v>
       </c>
-      <c r="I117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118">
+      <c r="I117" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0">
         <v>8.0052308005166548</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="0">
         <v>5.5424708273239327</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="0">
         <v>6.6027467086515346</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="0">
         <v>5.6700006851580325</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="0">
         <v>6.1174716628343369</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="0">
         <v>4.5500902980232603</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="0">
         <v>5.6406932826603713</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="0">
         <v>5.1203391263568108</v>
       </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119">
+      <c r="I118" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0">
         <v>8.1566124606392343</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="0">
         <v>5.4420739208003299</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="0">
         <v>6.3877218304565782</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="0">
         <v>5.8658102047029637</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="0">
         <v>6.0304797447097531</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="0">
         <v>4.6151052360412308</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="0">
         <v>5.8120663950540488</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="0">
         <v>5.2417684538788309</v>
       </c>
-      <c r="I119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120">
+      <c r="I119" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0">
         <v>7.9623765320202873</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="0">
         <v>5.7821740631683358</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="0">
         <v>6.8421617557772212</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="0">
         <v>5.9033079213856503</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="0">
         <v>6.2193926736122336</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="0">
         <v>4.8415928850371559</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="0">
         <v>5.9305083528452478</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="0">
         <v>5.3831771107486377</v>
       </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121">
+      <c r="I120" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0">
         <v>8.2199581253995273</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="0">
         <v>5.5627307679428704</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="0">
         <v>6.6290781913691248</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="0">
         <v>5.9695844361722532</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="0">
         <v>6.1782987776439153</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="0">
         <v>4.8113075053694789</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="0">
         <v>6.0138559612018865</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="0">
         <v>5.3611491208528026</v>
       </c>
-      <c r="I121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122">
+      <c r="I121" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0">
         <v>7.8671114196020717</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="0">
         <v>5.6050000268239826</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="0">
         <v>6.6362405838712668</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="0">
         <v>5.9930756499001232</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="0">
         <v>6.1502774050382927</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="0">
         <v>4.843584966934479</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="0">
         <v>6.0580810151754143</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="0">
         <v>5.3624063226337766</v>
       </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123">
+      <c r="I122" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0">
         <v>7.7760503390992399</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="0">
         <v>6.2131009185650266</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="0">
         <v>6.5444183799662587</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="0">
         <v>6.4130408740705018</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="0">
         <v>6.141749478403999</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="0">
         <v>5.1375150838196015</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="0">
         <v>6.0932656075210012</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="0">
         <v>5.3808352872870966</v>
       </c>
-      <c r="I123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124">
+      <c r="I123" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0">
         <v>7.7210537614431152</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="0">
         <v>5.7401721575878337</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="0">
         <v>6.7395737025171751</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="0">
         <v>6.3699474299301082</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="0">
         <v>6.2784842303113368</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="0">
         <v>5.1097596215932928</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="0">
         <v>6.3219909105460621</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="0">
         <v>5.4942103142230794</v>
       </c>
-      <c r="I124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125">
+      <c r="I124" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0">
         <v>7.4550255315390634</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="0">
         <v>5.7719232478035929</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="0">
         <v>6.8440584002126181</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="0">
         <v>6.3695486102784189</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="0">
         <v>6.2274433089647481</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="0">
         <v>5.2012669232815112</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="0">
         <v>6.4172580891329503</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="0">
         <v>5.5745221670805281</v>
       </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126">
+      <c r="I125" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0">
         <v>7.5199369488956931</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="0">
         <v>5.9249885893478096</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="0">
         <v>6.9617392742313022</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="0">
         <v>6.5174615166166161</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="0">
         <v>6.4293852312648792</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="0">
         <v>5.3412841219262592</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="0">
         <v>6.5581581572120831</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="0">
         <v>5.6407711845153745</v>
       </c>
-      <c r="I126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127">
+      <c r="I126" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0">
         <v>7.5896777246010085</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="0">
         <v>6.055096151541715</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="0">
         <v>7.1335775259593142</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="0">
         <v>6.6187120559370456</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="0">
         <v>6.501057023360219</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="0">
         <v>5.4235863789359433</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="0">
         <v>6.619395029456582</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="0">
         <v>5.8752862650575697</v>
       </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128">
+      <c r="I127" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0">
         <v>7.4565693219974687</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="0">
         <v>6.2516785495491565</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="0">
         <v>7.2571027695540389</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="0">
         <v>6.688365391050378</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="0">
         <v>6.555692879781172</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="0">
         <v>5.6556252478353199</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="0">
         <v>6.7283494031850273</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="0">
         <v>5.8937508450338019</v>
       </c>
-      <c r="I128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129">
+      <c r="I128" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0">
         <v>7.3369905843407768</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="0">
         <v>6.1316828024675081</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="0">
         <v>7.1432417065563776</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="0">
         <v>6.7864434216626153</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="0">
         <v>6.5578260968099382</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="0">
         <v>5.622008315625588</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="0">
         <v>6.7563306458124046</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="0">
         <v>5.9679820351552753</v>
       </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130">
+      <c r="I129" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0">
         <v>7.3068351925151687</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="0">
         <v>6.3972198176197166</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="0">
         <v>7.2859756471323074</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="0">
         <v>6.8709107969294614</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="0">
         <v>6.6369139170854936</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="0">
         <v>5.8953662035537464</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="0">
         <v>6.8911489547759164</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="0">
         <v>6.0932518047302962</v>
       </c>
-      <c r="I130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131">
+      <c r="I130" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0">
         <v>7.1005734697682961</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="0">
         <v>6.4915697904493062</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="0">
         <v>7.6121643736683033</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="0">
         <v>6.980053040674453</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="0">
         <v>6.8880910851946062</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="0">
         <v>5.8859765827837389</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="0">
         <v>6.999011300651004</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="0">
         <v>6.204678258623515</v>
       </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132">
+      <c r="I131" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0">
         <v>7.1548106323409355</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="0">
         <v>6.255822855626481</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="0">
         <v>7.3263022011214938</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="0">
         <v>7.0124685207876967</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="0">
         <v>6.6945469678030234</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="0">
         <v>5.8464619860272746</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="0">
         <v>7.0006035650987855</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="0">
         <v>6.1355671447261111</v>
       </c>
-      <c r="I132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133">
+      <c r="I132" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0">
         <v>7.3279048944646172</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="0">
         <v>6.4851975544907914</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="0">
         <v>7.5393725570970105</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="0">
         <v>7.3920141008666027</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="0">
         <v>7.0540325814927938</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="0">
         <v>6.2437983641764747</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="0">
         <v>7.3833398736083593</v>
       </c>
-      <c r="H133">
+      <c r="H133" s="0">
         <v>6.4768939056033279</v>
       </c>
-      <c r="I133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134">
+      <c r="I133" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0">
         <v>7.1207044998285252</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="0">
         <v>6.4849881808645335</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="0">
         <v>7.5060114905739281</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="0">
         <v>7.3787707095335673</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="0">
         <v>7.0834708905448638</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="0">
         <v>6.2457189176689774</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="0">
         <v>7.3313151439041873</v>
       </c>
-      <c r="H134">
+      <c r="H134" s="0">
         <v>6.4860647694651137</v>
       </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135">
+      <c r="I134" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0">
         <v>7.4457497241992971</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="0">
         <v>6.5456538038993202</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="0">
         <v>7.6554288399514956</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="0">
         <v>7.4945773005970313</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="0">
         <v>7.2391302099394075</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="0">
         <v>6.415005494604948</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="0">
         <v>7.4872254977592929</v>
       </c>
-      <c r="H135">
+      <c r="H135" s="0">
         <v>6.6740919270306769</v>
       </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136">
+      <c r="I135" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0">
         <v>7.7893207787335017</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="0">
         <v>7.1420392638757022</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="0">
         <v>7.834936128008116</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="0">
         <v>8.1733321636820584</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="0">
         <v>7.5930588277896511</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="0">
         <v>6.8658045660107438</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="0">
         <v>7.7071693055394608</v>
       </c>
-      <c r="H136">
+      <c r="H136" s="0">
         <v>7.0096976512579188</v>
       </c>
-      <c r="I136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137">
+      <c r="I136" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0">
         <v>7.5673333560295628</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="0">
         <v>6.5654191265623254</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="0">
         <v>7.7096435756086557</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="0">
         <v>7.5687701346228451</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="0">
         <v>7.3047557387408721</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="0">
         <v>6.5135039094317904</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="0">
         <v>7.5788971384253747</v>
       </c>
-      <c r="H137">
+      <c r="H137" s="0">
         <v>6.7881812941506334</v>
       </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138">
+      <c r="I137" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0">
         <v>7.582931365080114</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="0">
         <v>6.594807028420834</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="0">
         <v>7.703212622487408</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="0">
         <v>7.6057941856462605</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="0">
         <v>7.3511316000566298</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="0">
         <v>6.5460066813926305</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="0">
         <v>7.6203441323663856</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="0">
         <v>6.8379577616031337</v>
       </c>
-      <c r="I138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139">
+      <c r="I138" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0">
         <v>7.8788886842956822</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="0">
         <v>6.6457313607796937</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="0">
         <v>7.8527008960928875</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="0">
         <v>7.7309913572870359</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="0">
         <v>7.4794778512246092</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="0">
         <v>6.6446008130323397</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="0">
         <v>7.7447575403524596</v>
       </c>
-      <c r="H139">
+      <c r="H139" s="0">
         <v>6.9076519219899293</v>
       </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140">
+      <c r="I139" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0">
         <v>7.4396070941911621</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="0">
         <v>6.634382794584833</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="0">
         <v>7.7690123699821827</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="0">
         <v>7.7190256532297488</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="0">
         <v>7.4396205537300792</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="0">
         <v>6.6460074929231876</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="0">
         <v>7.7158193301274762</v>
       </c>
-      <c r="H140">
+      <c r="H140" s="0">
         <v>6.9538832982492291</v>
       </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141">
+      <c r="I140" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0">
         <v>7.5245631951905141</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="0">
         <v>6.6141256559231589</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="0">
         <v>7.7917363967857751</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="0">
         <v>7.720847226410938</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="0">
         <v>7.471632104072877</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="0">
         <v>6.699773277382949</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="0">
         <v>7.7367342141799531</v>
       </c>
-      <c r="H141">
+      <c r="H141" s="0">
         <v>6.9627155208379783</v>
       </c>
-      <c r="I141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142">
+      <c r="I141" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0">
         <v>7.3786651077010887</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="0">
         <v>6.6374789909724345</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="0">
         <v>7.831865043261244</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="0">
         <v>7.7467538381513847</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="0">
         <v>7.5460224436801484</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="0">
         <v>6.7050503870690878</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="0">
         <v>7.7616801573025835</v>
       </c>
-      <c r="H142">
+      <c r="H142" s="0">
         <v>7.0540679028294084</v>
       </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143">
+      <c r="I142" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0">
         <v>7.4986091692146806</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="0">
         <v>6.842631479036263</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="0">
         <v>7.9292950858756406</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="0">
         <v>7.8314972253502066</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="0">
         <v>7.6928832001434619</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="0">
         <v>6.8255087930638769</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="0">
         <v>7.8611201093542</v>
       </c>
-      <c r="H143">
+      <c r="H143" s="0">
         <v>7.1164423490529307</v>
       </c>
-      <c r="I143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144">
+      <c r="I143" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0">
         <v>7.3242413284294834</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="0">
         <v>6.702446311679684</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="0">
         <v>7.9553400191052717</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="0">
         <v>7.828659011631423</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="0">
         <v>7.6071070386948687</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="0">
         <v>6.7970490033313489</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="0">
         <v>7.8536712234402462</v>
       </c>
-      <c r="H144">
+      <c r="H144" s="0">
         <v>7.132858355538457</v>
       </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145">
+      <c r="I144" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0">
         <v>7.3895341632917306</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="0">
         <v>6.772469550222902</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="0">
         <v>7.9929153634524228</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="0">
         <v>7.8983171608752238</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="0">
         <v>7.7420357537252462</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="0">
         <v>6.8363358314160303</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="0">
         <v>7.9252942353280664</v>
       </c>
-      <c r="H145">
+      <c r="H145" s="0">
         <v>7.1956339564507079</v>
       </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146">
+      <c r="I145" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0">
         <v>7.3220018410056689</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="0">
         <v>6.8509548080149649</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="0">
         <v>8.0259655249171047</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="0">
         <v>7.9948038889081801</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="0">
         <v>7.8274679861470151</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="0">
         <v>6.9421619141003585</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="0">
         <v>7.9911269386245873</v>
       </c>
-      <c r="H146">
+      <c r="H146" s="0">
         <v>7.4433332516662736</v>
       </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147">
+      <c r="I146" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0">
         <v>6.7203843597615567</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="0">
         <v>6.8960546561310938</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="0">
         <v>8.2513118847960936</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="0">
         <v>8.0647743518232424</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="0">
         <v>7.8320961343031161</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="0">
         <v>7.0850606090225927</v>
       </c>
-      <c r="G147">
+      <c r="G147" s="0">
         <v>8.1211043143234658</v>
       </c>
-      <c r="H147">
+      <c r="H147" s="0">
         <v>7.47215108635144</v>
       </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148">
+      <c r="I147" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0">
         <v>7.0833880115985455</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="0">
         <v>6.9922584189977055</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="0">
         <v>8.2748703844388984</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="0">
         <v>8.1094332948731473</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="0">
         <v>7.8994568330070392</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="0">
         <v>7.1225352718616604</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="0">
         <v>8.144712072586886</v>
       </c>
-      <c r="H148">
+      <c r="H148" s="0">
         <v>7.4886434007626939</v>
       </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149">
+      <c r="I148" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0">
         <v>6.6586653207983124</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="0">
         <v>6.8443649872761609</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="0">
         <v>8.1586553480461639</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="0">
         <v>8.1105326225368213</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="0">
         <v>7.8486300643313465</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="0">
         <v>7.1248387896217951</v>
       </c>
-      <c r="G149">
+      <c r="G149" s="0">
         <v>8.1212129173649519</v>
       </c>
-      <c r="H149">
+      <c r="H149" s="0">
         <v>7.5096837480215468</v>
       </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150">
+      <c r="I149" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0">
         <v>6.808276140299192</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="0">
         <v>6.8835735862885317</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="0">
         <v>8.281819544380431</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="0">
         <v>8.153182622800113</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="0">
         <v>7.9293702470269798</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="0">
         <v>7.1794216890595424</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="0">
         <v>8.2157587671926802</v>
       </c>
-      <c r="H150">
+      <c r="H150" s="0">
         <v>7.6093161562776928</v>
       </c>
-      <c r="I150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
-      <c r="A151">
+      <c r="I150" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0">
         <v>6.7579504681445473</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="0">
         <v>7.3451188568673569</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="0">
         <v>8.4315840513384401</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="0">
         <v>8.3522743645712048</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="0">
         <v>8.1824537076097066</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="0">
         <v>7.4720438351678169</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="0">
         <v>8.3757151193667347</v>
       </c>
-      <c r="H151">
+      <c r="H151" s="0">
         <v>7.8466490185413749</v>
       </c>
-      <c r="I151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
-      <c r="A152">
+      <c r="I151" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0">
         <v>6.5909808816163826</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="0">
         <v>7.0018838984418892</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="0">
         <v>8.3960950606580482</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="0">
         <v>8.3497135158352709</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="0">
         <v>8.1551155834054452</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="0">
         <v>7.4386455463134826</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="0">
         <v>8.3889183815962554</v>
       </c>
-      <c r="H152">
+      <c r="H152" s="0">
         <v>7.8430432981378742</v>
       </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="A153">
+      <c r="I152" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0">
         <v>6.7850416410700358</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="0">
         <v>7.4913806453051164</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="0">
         <v>8.5078754386320874</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="0">
         <v>8.3996091666861847</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="0">
         <v>8.2596538090951075</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="0">
         <v>7.6948201582105549</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="0">
         <v>8.4957952217193036</v>
       </c>
-      <c r="H153">
+      <c r="H153" s="0">
         <v>7.8898626602515884</v>
       </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154">
+      <c r="I153" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0">
         <v>6.6115960351603462</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="0">
         <v>7.2920899682570006</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="0">
         <v>8.5201019038866495</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="0">
         <v>8.393687944268569</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="0">
         <v>8.2202242136706527</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="0">
         <v>7.4829614456613491</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="0">
         <v>8.5063645286871736</v>
       </c>
-      <c r="H154">
+      <c r="H154" s="0">
         <v>7.9295631588970688</v>
       </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155">
+      <c r="I154" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0">
         <v>6.6548737918901235</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="0">
         <v>7.152848641666016</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="0">
         <v>8.5581233182146228</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="0">
         <v>8.440117635230493</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="0">
         <v>8.2557526206441949</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="0">
         <v>7.5029872553633297</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="0">
         <v>8.457366935069361</v>
       </c>
-      <c r="H155">
+      <c r="H155" s="0">
         <v>7.9650201289624674</v>
       </c>
-      <c r="I155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156">
+      <c r="I155" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0">
         <v>6.5549369227606942</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="0">
         <v>7.0804217128029272</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="0">
         <v>8.5005233739826274</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="0">
         <v>8.4238678510773077</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="0">
         <v>8.2675788451385941</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="0">
         <v>7.5317373391604878</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="0">
         <v>8.5049871732428901</v>
       </c>
-      <c r="H156">
+      <c r="H156" s="0">
         <v>7.9265491062349174</v>
       </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157">
+      <c r="I156" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0">
         <v>6.6924104378755178</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="0">
         <v>7.1590416468884284</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="0">
         <v>8.5451668214146252</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="0">
         <v>8.4913982589206096</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="0">
         <v>8.3078320154559719</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="0">
         <v>7.5600831764728715</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="0">
         <v>8.5353051244497031</v>
       </c>
-      <c r="H157">
+      <c r="H157" s="0">
         <v>7.9967779638078031</v>
       </c>
-      <c r="I157">
+      <c r="I157" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0">
+        <v>5.9886577881016905</v>
+      </c>
+      <c r="B158" s="0">
+        <v>5.2472264119819059</v>
+      </c>
+      <c r="C158" s="0">
+        <v>6.8525711736851251</v>
+      </c>
+      <c r="D158" s="0">
+        <v>6.16083471252698</v>
+      </c>
+      <c r="E158" s="0">
+        <v>6.1623830589319617</v>
+      </c>
+      <c r="F158" s="0">
+        <v>5.7134237735303435</v>
+      </c>
+      <c r="G158" s="0">
+        <v>6.5619176307978053</v>
+      </c>
+      <c r="H158" s="0">
+        <v>5.9162169198042172</v>
+      </c>
+      <c r="I158" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0">
+        <v>5.5955554894275874</v>
+      </c>
+      <c r="B159" s="0">
+        <v>5.1491227399711486</v>
+      </c>
+      <c r="C159" s="0">
+        <v>6.7983036841956874</v>
+      </c>
+      <c r="D159" s="0">
+        <v>6.1891572904660812</v>
+      </c>
+      <c r="E159" s="0">
+        <v>6.1648971736621592</v>
+      </c>
+      <c r="F159" s="0">
+        <v>5.7102732400537084</v>
+      </c>
+      <c r="G159" s="0">
+        <v>6.6549456527844333</v>
+      </c>
+      <c r="H159" s="0">
+        <v>5.8819508525743762</v>
+      </c>
+      <c r="I159" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0">
+        <v>5.8768312640830107</v>
+      </c>
+      <c r="B160" s="0">
+        <v>5.191228956909903</v>
+      </c>
+      <c r="C160" s="0">
+        <v>6.7904880023105747</v>
+      </c>
+      <c r="D160" s="0">
+        <v>6.2732290946501212</v>
+      </c>
+      <c r="E160" s="0">
+        <v>6.1888343926943392</v>
+      </c>
+      <c r="F160" s="0">
+        <v>5.7495334685988677</v>
+      </c>
+      <c r="G160" s="0">
+        <v>6.5976669529251097</v>
+      </c>
+      <c r="H160" s="0">
+        <v>5.9485213126301497</v>
+      </c>
+      <c r="I160" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0">
+        <v>5.7164417230150484</v>
+      </c>
+      <c r="B161" s="0">
+        <v>5.2950127192345109</v>
+      </c>
+      <c r="C161" s="0">
+        <v>6.9825399683400002</v>
+      </c>
+      <c r="D161" s="0">
+        <v>6.3084634741135215</v>
+      </c>
+      <c r="E161" s="0">
+        <v>6.2774791543578337</v>
+      </c>
+      <c r="F161" s="0">
+        <v>5.7872724555308661</v>
+      </c>
+      <c r="G161" s="0">
+        <v>6.7111713388370333</v>
+      </c>
+      <c r="H161" s="0">
+        <v>6.0120379936833421</v>
+      </c>
+      <c r="I161" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0">
+        <v>5.9216222132807177</v>
+      </c>
+      <c r="B162" s="0">
+        <v>5.691405613503167</v>
+      </c>
+      <c r="C162" s="0">
+        <v>6.9491307001584124</v>
+      </c>
+      <c r="D162" s="0">
+        <v>6.4309440876356563</v>
+      </c>
+      <c r="E162" s="0">
+        <v>6.3696868661585668</v>
+      </c>
+      <c r="F162" s="0">
+        <v>6.0331045177290701</v>
+      </c>
+      <c r="G162" s="0">
+        <v>6.7499973177260353</v>
+      </c>
+      <c r="H162" s="0">
+        <v>6.1425454576687297</v>
+      </c>
+      <c r="I162" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0">
+        <v>5.390247953122083</v>
+      </c>
+      <c r="B163" s="0">
+        <v>5.3556078718466003</v>
+      </c>
+      <c r="C163" s="0">
+        <v>6.9670951085487767</v>
+      </c>
+      <c r="D163" s="0">
+        <v>6.4953003833416494</v>
+      </c>
+      <c r="E163" s="0">
+        <v>6.4106866107455032</v>
+      </c>
+      <c r="F163" s="0">
+        <v>5.9566818596047835</v>
+      </c>
+      <c r="G163" s="0">
+        <v>6.7875468365763165</v>
+      </c>
+      <c r="H163" s="0">
+        <v>6.1677082333082014</v>
+      </c>
+      <c r="I163" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0">
+        <v>5.5093766239112352</v>
+      </c>
+      <c r="B164" s="0">
+        <v>5.5006993608357044</v>
+      </c>
+      <c r="C164" s="0">
+        <v>7.0296175054368435</v>
+      </c>
+      <c r="D164" s="0">
+        <v>6.5123140801704773</v>
+      </c>
+      <c r="E164" s="0">
+        <v>6.4572675395136132</v>
+      </c>
+      <c r="F164" s="0">
+        <v>5.9581640386509127</v>
+      </c>
+      <c r="G164" s="0">
+        <v>6.808935367372257</v>
+      </c>
+      <c r="H164" s="0">
+        <v>6.2518506104056559</v>
+      </c>
+      <c r="I164" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0">
+        <v>5.4953081682299834</v>
+      </c>
+      <c r="B165" s="0">
+        <v>5.4757936920224797</v>
+      </c>
+      <c r="C165" s="0">
+        <v>7.0223832711116536</v>
+      </c>
+      <c r="D165" s="0">
+        <v>6.5258258532554194</v>
+      </c>
+      <c r="E165" s="0">
+        <v>6.4541215137581611</v>
+      </c>
+      <c r="F165" s="0">
+        <v>5.9594296357467824</v>
+      </c>
+      <c r="G165" s="0">
+        <v>6.7384792433620957</v>
+      </c>
+      <c r="H165" s="0">
+        <v>6.1952450579158809</v>
+      </c>
+      <c r="I165" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0">
+        <v>8.7029004215999777</v>
+      </c>
+      <c r="B166" s="0">
+        <v>5.8633821947080342</v>
+      </c>
+      <c r="C166" s="0">
+        <v>7.5661163693788662</v>
+      </c>
+      <c r="D166" s="0">
+        <v>6.7140864940436193</v>
+      </c>
+      <c r="E166" s="0">
+        <v>6.7630029768539677</v>
+      </c>
+      <c r="F166" s="0">
+        <v>6.1386036502116248</v>
+      </c>
+      <c r="G166" s="0">
+        <v>6.9230277824681785</v>
+      </c>
+      <c r="H166" s="0">
+        <v>6.440355275869714</v>
+      </c>
+      <c r="I166" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0">
+        <v>6.6487861228046157</v>
+      </c>
+      <c r="B167" s="0">
+        <v>5.7435560673865371</v>
+      </c>
+      <c r="C167" s="0">
+        <v>7.1197229614307886</v>
+      </c>
+      <c r="D167" s="0">
+        <v>6.70416549031793</v>
+      </c>
+      <c r="E167" s="0">
+        <v>6.6144411647313461</v>
+      </c>
+      <c r="F167" s="0">
+        <v>6.1239655922261953</v>
+      </c>
+      <c r="G167" s="0">
+        <v>6.8909033994494289</v>
+      </c>
+      <c r="H167" s="0">
+        <v>6.4254163535281013</v>
+      </c>
+      <c r="I167" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0">
+        <v>8.9220258293110621</v>
+      </c>
+      <c r="B168" s="0">
+        <v>5.7132330872511785</v>
+      </c>
+      <c r="C168" s="0">
+        <v>7.1180604734096615</v>
+      </c>
+      <c r="D168" s="0">
+        <v>6.6344327081716985</v>
+      </c>
+      <c r="E168" s="0">
+        <v>6.5983672566025637</v>
+      </c>
+      <c r="F168" s="0">
+        <v>6.0665216660324113</v>
+      </c>
+      <c r="G168" s="0">
+        <v>6.820855991569025</v>
+      </c>
+      <c r="H168" s="0">
+        <v>6.3827019029340128</v>
+      </c>
+      <c r="I168" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0">
+        <v>7.6252884865200556</v>
+      </c>
+      <c r="B169" s="0">
+        <v>5.7866759341855625</v>
+      </c>
+      <c r="C169" s="0">
+        <v>7.1831219634714616</v>
+      </c>
+      <c r="D169" s="0">
+        <v>6.7827858126007703</v>
+      </c>
+      <c r="E169" s="0">
+        <v>6.7170562218771872</v>
+      </c>
+      <c r="F169" s="0">
+        <v>6.2327839239727165</v>
+      </c>
+      <c r="G169" s="0">
+        <v>7.0141688389961621</v>
+      </c>
+      <c r="H169" s="0">
+        <v>6.500360968858903</v>
+      </c>
+      <c r="I169" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0">
+        <v>7.6350317677195578</v>
+      </c>
+      <c r="B170" s="0">
+        <v>5.737827345932434</v>
+      </c>
+      <c r="C170" s="0">
+        <v>7.0931797020962915</v>
+      </c>
+      <c r="D170" s="0">
+        <v>6.6201609232651313</v>
+      </c>
+      <c r="E170" s="0">
+        <v>6.5583822095950746</v>
+      </c>
+      <c r="F170" s="0">
+        <v>6.1022874224417585</v>
+      </c>
+      <c r="G170" s="0">
+        <v>6.8757416977719412</v>
+      </c>
+      <c r="H170" s="0">
+        <v>6.4380950133034816</v>
+      </c>
+      <c r="I170" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0">
+        <v>6.0873474725524321</v>
+      </c>
+      <c r="B171" s="0">
+        <v>5.6157480087195948</v>
+      </c>
+      <c r="C171" s="0">
+        <v>6.9305813929959221</v>
+      </c>
+      <c r="D171" s="0">
+        <v>6.5086762729312593</v>
+      </c>
+      <c r="E171" s="0">
+        <v>6.5204411510131024</v>
+      </c>
+      <c r="F171" s="0">
+        <v>5.9267555994411163</v>
+      </c>
+      <c r="G171" s="0">
+        <v>6.7614399919142114</v>
+      </c>
+      <c r="H171" s="0">
+        <v>6.3006612176069039</v>
+      </c>
+      <c r="I171" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0">
+        <v>6.865195387509635</v>
+      </c>
+      <c r="B172" s="0">
+        <v>5.798982577904499</v>
+      </c>
+      <c r="C172" s="0">
+        <v>7.0883306167632671</v>
+      </c>
+      <c r="D172" s="0">
+        <v>6.5085029421829743</v>
+      </c>
+      <c r="E172" s="0">
+        <v>6.6003015136029086</v>
+      </c>
+      <c r="F172" s="0">
+        <v>5.9242570106374499</v>
+      </c>
+      <c r="G172" s="0">
+        <v>6.6957207962256335</v>
+      </c>
+      <c r="H172" s="0">
+        <v>6.247364436803605</v>
+      </c>
+      <c r="I172" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0">
+        <v>6.6745660250961834</v>
+      </c>
+      <c r="B173" s="0">
+        <v>5.7255443252219953</v>
+      </c>
+      <c r="C173" s="0">
+        <v>7.0093892111104248</v>
+      </c>
+      <c r="D173" s="0">
+        <v>6.493229046956122</v>
+      </c>
+      <c r="E173" s="0">
+        <v>6.5492539760515767</v>
+      </c>
+      <c r="F173" s="0">
+        <v>5.9583051887603418</v>
+      </c>
+      <c r="G173" s="0">
+        <v>6.6126309056263786</v>
+      </c>
+      <c r="H173" s="0">
+        <v>6.2776872024853878</v>
+      </c>
+      <c r="I173" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0">
+        <v>6.8809793881063328</v>
+      </c>
+      <c r="B174" s="0">
+        <v>5.6555367611326686</v>
+      </c>
+      <c r="C174" s="0">
+        <v>6.9139713473554112</v>
+      </c>
+      <c r="D174" s="0">
+        <v>6.4931982892653881</v>
+      </c>
+      <c r="E174" s="0">
+        <v>6.490509247410988</v>
+      </c>
+      <c r="F174" s="0">
+        <v>5.9860839392707677</v>
+      </c>
+      <c r="G174" s="0">
+        <v>6.6509228722525764</v>
+      </c>
+      <c r="H174" s="0">
+        <v>6.2828478154886769</v>
+      </c>
+      <c r="I174" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0">
+        <v>7.0288961156222314</v>
+      </c>
+      <c r="B175" s="0">
+        <v>5.7735679074720094</v>
+      </c>
+      <c r="C175" s="0">
+        <v>7.0949662232297763</v>
+      </c>
+      <c r="D175" s="0">
+        <v>6.5450633704946162</v>
+      </c>
+      <c r="E175" s="0">
+        <v>6.5708097658528626</v>
+      </c>
+      <c r="F175" s="0">
+        <v>5.9848276066733073</v>
+      </c>
+      <c r="G175" s="0">
+        <v>6.7845030640219299</v>
+      </c>
+      <c r="H175" s="0">
+        <v>6.3535364022849663</v>
+      </c>
+      <c r="I175" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0">
+        <v>8.8866028756065383</v>
+      </c>
+      <c r="B176" s="0">
+        <v>7.9635110071449899</v>
+      </c>
+      <c r="C176" s="0">
+        <v>9.4126780187537555</v>
+      </c>
+      <c r="D176" s="0">
+        <v>9.6807725026905871</v>
+      </c>
+      <c r="E176" s="0">
+        <v>7.6780234534086729</v>
+      </c>
+      <c r="F176" s="0">
+        <v>7.1377161498932429</v>
+      </c>
+      <c r="G176" s="0">
+        <v>9.1177742218803566</v>
+      </c>
+      <c r="H176" s="0">
+        <v>9.2524986363156962</v>
+      </c>
+      <c r="I176" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0">
+        <v>8.7648700695441875</v>
+      </c>
+      <c r="B177" s="0">
+        <v>7.9842494584563513</v>
+      </c>
+      <c r="C177" s="0">
+        <v>9.3728542055148178</v>
+      </c>
+      <c r="D177" s="0">
+        <v>8.788503201068389</v>
+      </c>
+      <c r="E177" s="0">
+        <v>7.7208908749862024</v>
+      </c>
+      <c r="F177" s="0">
+        <v>7.2968513960249757</v>
+      </c>
+      <c r="G177" s="0">
+        <v>9.2083841065126411</v>
+      </c>
+      <c r="H177" s="0">
+        <v>9.2471770382313139</v>
+      </c>
+      <c r="I177" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0">
+        <v>8.9293369410829619</v>
+      </c>
+      <c r="B178" s="0">
+        <v>8.0412132898766391</v>
+      </c>
+      <c r="C178" s="0">
+        <v>9.5352484314762194</v>
+      </c>
+      <c r="D178" s="0">
+        <v>8.7962934839793974</v>
+      </c>
+      <c r="E178" s="0">
+        <v>7.7567868222491194</v>
+      </c>
+      <c r="F178" s="0">
+        <v>7.297336035063692</v>
+      </c>
+      <c r="G178" s="0">
+        <v>9.2423879136621228</v>
+      </c>
+      <c r="H178" s="0">
+        <v>9.3188219818343629</v>
+      </c>
+      <c r="I178" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0">
+        <v>8.6748899643861783</v>
+      </c>
+      <c r="B179" s="0">
+        <v>8.1875912881882389</v>
+      </c>
+      <c r="C179" s="0">
+        <v>9.6046723288111053</v>
+      </c>
+      <c r="D179" s="0">
+        <v>8.8836273344068228</v>
+      </c>
+      <c r="E179" s="0">
+        <v>7.9397653262258441</v>
+      </c>
+      <c r="F179" s="0">
+        <v>7.4165780915688027</v>
+      </c>
+      <c r="G179" s="0">
+        <v>9.3186409263245178</v>
+      </c>
+      <c r="H179" s="0">
+        <v>9.3477792414777596</v>
+      </c>
+      <c r="I179" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0">
+        <v>9.6240845176810925</v>
+      </c>
+      <c r="B180" s="0">
+        <v>8.3091847129567036</v>
+      </c>
+      <c r="C180" s="0">
+        <v>9.7543369449167283</v>
+      </c>
+      <c r="D180" s="0">
+        <v>8.9412197388682255</v>
+      </c>
+      <c r="E180" s="0">
+        <v>8.0321889292150601</v>
+      </c>
+      <c r="F180" s="0">
+        <v>7.5083351761452883</v>
+      </c>
+      <c r="G180" s="0">
+        <v>9.3547821829015412</v>
+      </c>
+      <c r="H180" s="0">
+        <v>9.5374316612340611</v>
+      </c>
+      <c r="I180" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0">
+        <v>8.4082998676621781</v>
+      </c>
+      <c r="B181" s="0">
+        <v>8.2750335463659468</v>
+      </c>
+      <c r="C181" s="0">
+        <v>9.6274741159888357</v>
+      </c>
+      <c r="D181" s="0">
+        <v>9.035239082097716</v>
+      </c>
+      <c r="E181" s="0">
+        <v>7.9898731062564163</v>
+      </c>
+      <c r="F181" s="0">
+        <v>7.5647043330676809</v>
+      </c>
+      <c r="G181" s="0">
+        <v>9.3480078082776057</v>
+      </c>
+      <c r="H181" s="0">
+        <v>9.560249820558834</v>
+      </c>
+      <c r="I181" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0">
+        <v>8.6660411364290457</v>
+      </c>
+      <c r="B182" s="0">
+        <v>8.3966300885709551</v>
+      </c>
+      <c r="C182" s="0">
+        <v>9.8108807721024593</v>
+      </c>
+      <c r="D182" s="0">
+        <v>9.1210405143772313</v>
+      </c>
+      <c r="E182" s="0">
+        <v>8.1430636827617207</v>
+      </c>
+      <c r="F182" s="0">
+        <v>7.6856021509118779</v>
+      </c>
+      <c r="G182" s="0">
+        <v>9.4283798192634052</v>
+      </c>
+      <c r="H182" s="0">
+        <v>9.6073545800857545</v>
+      </c>
+      <c r="I182" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0">
+        <v>8.5168052503131531</v>
+      </c>
+      <c r="B183" s="0">
+        <v>8.3999166180307334</v>
+      </c>
+      <c r="C183" s="0">
+        <v>9.8685384457460756</v>
+      </c>
+      <c r="D183" s="0">
+        <v>9.1365635699477288</v>
+      </c>
+      <c r="E183" s="0">
+        <v>8.2043304728827131</v>
+      </c>
+      <c r="F183" s="0">
+        <v>7.6923648831369755</v>
+      </c>
+      <c r="G183" s="0">
+        <v>9.4594702937088364</v>
+      </c>
+      <c r="H183" s="0">
+        <v>9.6832661056021649</v>
+      </c>
+      <c r="I183" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0">
+        <v>8.7053840375409202</v>
+      </c>
+      <c r="B184" s="0">
+        <v>8.5406350359740451</v>
+      </c>
+      <c r="C184" s="0">
+        <v>9.9361060432583201</v>
+      </c>
+      <c r="D184" s="0">
+        <v>9.3221132353557969</v>
+      </c>
+      <c r="E184" s="0">
+        <v>8.3188952165038437</v>
+      </c>
+      <c r="F184" s="0">
+        <v>7.8846984971962923</v>
+      </c>
+      <c r="G184" s="0">
+        <v>9.6017012418171408</v>
+      </c>
+      <c r="H184" s="0">
+        <v>9.8041528909842235</v>
+      </c>
+      <c r="I184" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0">
+        <v>8.4311725253195711</v>
+      </c>
+      <c r="B185" s="0">
+        <v>8.7971250466882669</v>
+      </c>
+      <c r="C185" s="0">
+        <v>10.128253526885088</v>
+      </c>
+      <c r="D185" s="0">
+        <v>9.4881272279934077</v>
+      </c>
+      <c r="E185" s="0">
+        <v>8.5782815106056152</v>
+      </c>
+      <c r="F185" s="0">
+        <v>8.131064644894499</v>
+      </c>
+      <c r="G185" s="0">
+        <v>9.7074346638365068</v>
+      </c>
+      <c r="H185" s="0">
+        <v>9.9529608374451968</v>
+      </c>
+      <c r="I185" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0">
+        <v>8.4606922868350019</v>
+      </c>
+      <c r="B186" s="0">
+        <v>8.7895076645715893</v>
+      </c>
+      <c r="C186" s="0">
+        <v>10.146491055643377</v>
+      </c>
+      <c r="D186" s="0">
+        <v>9.5126127120099806</v>
+      </c>
+      <c r="E186" s="0">
+        <v>8.5930527937606502</v>
+      </c>
+      <c r="F186" s="0">
+        <v>8.1142949542064606</v>
+      </c>
+      <c r="G186" s="0">
+        <v>9.7628758989945279</v>
+      </c>
+      <c r="H186" s="0">
+        <v>9.9665472268484798</v>
+      </c>
+      <c r="I186" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0">
+        <v>8.2303396997051284</v>
+      </c>
+      <c r="B187" s="0">
+        <v>8.9368340207425891</v>
+      </c>
+      <c r="C187" s="0">
+        <v>10.226583433724663</v>
+      </c>
+      <c r="D187" s="0">
+        <v>9.6166360631357399</v>
+      </c>
+      <c r="E187" s="0">
+        <v>8.6875500415887696</v>
+      </c>
+      <c r="F187" s="0">
+        <v>8.2091234733262013</v>
+      </c>
+      <c r="G187" s="0">
+        <v>9.839815163985314</v>
+      </c>
+      <c r="H187" s="0">
+        <v>10.127902218306426</v>
+      </c>
+      <c r="I187" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0">
+        <v>8.4239026457592381</v>
+      </c>
+      <c r="B188" s="0">
+        <v>8.9495184360411688</v>
+      </c>
+      <c r="C188" s="0">
+        <v>10.316081941803416</v>
+      </c>
+      <c r="D188" s="0">
+        <v>10.07887673907948</v>
+      </c>
+      <c r="E188" s="0">
+        <v>8.8099015447043758</v>
+      </c>
+      <c r="F188" s="0">
+        <v>8.330442061455285</v>
+      </c>
+      <c r="G188" s="0">
+        <v>9.9015840605304977</v>
+      </c>
+      <c r="H188" s="0">
+        <v>10.19736974672503</v>
+      </c>
+      <c r="I188" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0">
+        <v>8.3626366299018162</v>
+      </c>
+      <c r="B189" s="0">
+        <v>9.1005512932992936</v>
+      </c>
+      <c r="C189" s="0">
+        <v>10.424830085949027</v>
+      </c>
+      <c r="D189" s="0">
+        <v>10.719779079838503</v>
+      </c>
+      <c r="E189" s="0">
+        <v>8.9330232629309947</v>
+      </c>
+      <c r="F189" s="0">
+        <v>8.4090626668755011</v>
+      </c>
+      <c r="G189" s="0">
+        <v>9.970606066466047</v>
+      </c>
+      <c r="H189" s="0">
+        <v>10.258897647486041</v>
+      </c>
+      <c r="I189" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0">
+        <v>8.0479629486521809</v>
+      </c>
+      <c r="B190" s="0">
+        <v>9.0797083235114702</v>
+      </c>
+      <c r="C190" s="0">
+        <v>10.430186584603947</v>
+      </c>
+      <c r="D190" s="0">
+        <v>9.8846625788778901</v>
+      </c>
+      <c r="E190" s="0">
+        <v>8.9345521457861619</v>
+      </c>
+      <c r="F190" s="0">
+        <v>8.4534258577123644</v>
+      </c>
+      <c r="G190" s="0">
+        <v>9.9661339535227924</v>
+      </c>
+      <c r="H190" s="0">
+        <v>10.312159113960012</v>
+      </c>
+      <c r="I190" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0">
+        <v>8.1977065762977794</v>
+      </c>
+      <c r="B191" s="0">
+        <v>9.142409036345132</v>
+      </c>
+      <c r="C191" s="0">
+        <v>10.456939653872983</v>
+      </c>
+      <c r="D191" s="0">
+        <v>9.9811259189496422</v>
+      </c>
+      <c r="E191" s="0">
+        <v>8.9448073388483209</v>
+      </c>
+      <c r="F191" s="0">
+        <v>8.5561729875103687</v>
+      </c>
+      <c r="G191" s="0">
+        <v>10.08509660488923</v>
+      </c>
+      <c r="H191" s="0">
+        <v>10.370139360685853</v>
+      </c>
+      <c r="I191" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0">
+        <v>8.2560463426803175</v>
+      </c>
+      <c r="B192" s="0">
+        <v>9.2819315484878437</v>
+      </c>
+      <c r="C192" s="0">
+        <v>10.638235642465421</v>
+      </c>
+      <c r="D192" s="0">
+        <v>9.9811970001978612</v>
+      </c>
+      <c r="E192" s="0">
+        <v>9.0944491723350183</v>
+      </c>
+      <c r="F192" s="0">
+        <v>8.5920286803176165</v>
+      </c>
+      <c r="G192" s="0">
+        <v>10.112266718035974</v>
+      </c>
+      <c r="H192" s="0">
+        <v>10.472816782944577</v>
+      </c>
+      <c r="I192" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0">
+        <v>8.33046802743117</v>
+      </c>
+      <c r="B193" s="0">
+        <v>9.4135896750656816</v>
+      </c>
+      <c r="C193" s="0">
+        <v>10.768613345660023</v>
+      </c>
+      <c r="D193" s="0">
+        <v>10.152621964283364</v>
+      </c>
+      <c r="E193" s="0">
+        <v>9.2738558079420432</v>
+      </c>
+      <c r="F193" s="0">
+        <v>8.7200040193139507</v>
+      </c>
+      <c r="G193" s="0">
+        <v>10.194885089767427</v>
+      </c>
+      <c r="H193" s="0">
+        <v>10.512117969122606</v>
+      </c>
+      <c r="I193" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0">
+        <v>8.2196098846965064</v>
+      </c>
+      <c r="B194" s="0">
+        <v>9.5472860999183045</v>
+      </c>
+      <c r="C194" s="0">
+        <v>10.88975062623016</v>
+      </c>
+      <c r="D194" s="0">
+        <v>10.22535382644581</v>
+      </c>
+      <c r="E194" s="0">
+        <v>9.4206475371287457</v>
+      </c>
+      <c r="F194" s="0">
+        <v>8.9302309210721749</v>
+      </c>
+      <c r="G194" s="0">
+        <v>10.366576042482528</v>
+      </c>
+      <c r="H194" s="0">
+        <v>10.702498585324156</v>
+      </c>
+      <c r="I194" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0">
+        <v>7.6678587549382771</v>
+      </c>
+      <c r="B195" s="0">
+        <v>9.4949022508289342</v>
+      </c>
+      <c r="C195" s="0">
+        <v>10.813578576763675</v>
+      </c>
+      <c r="D195" s="0">
+        <v>10.129537008608763</v>
+      </c>
+      <c r="E195" s="0">
+        <v>9.3345759703048881</v>
+      </c>
+      <c r="F195" s="0">
+        <v>8.899322966496479</v>
+      </c>
+      <c r="G195" s="0">
+        <v>10.241386365628305</v>
+      </c>
+      <c r="H195" s="0">
+        <v>10.652481968932982</v>
+      </c>
+      <c r="I195" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0">
+        <v>8.1590289291829539</v>
+      </c>
+      <c r="B196" s="0">
+        <v>9.534990446287388</v>
+      </c>
+      <c r="C196" s="0">
+        <v>10.848934184630538</v>
+      </c>
+      <c r="D196" s="0">
+        <v>10.245699939671139</v>
+      </c>
+      <c r="E196" s="0">
+        <v>9.3652080280809997</v>
+      </c>
+      <c r="F196" s="0">
+        <v>8.9544578339297338</v>
+      </c>
+      <c r="G196" s="0">
+        <v>10.375645728029854</v>
+      </c>
+      <c r="H196" s="0">
+        <v>10.730358761557705</v>
+      </c>
+      <c r="I196" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0">
+        <v>8.174108968271506</v>
+      </c>
+      <c r="B197" s="0">
+        <v>9.6499406813642548</v>
+      </c>
+      <c r="C197" s="0">
+        <v>10.91028816999173</v>
+      </c>
+      <c r="D197" s="0">
+        <v>11.253188316390176</v>
+      </c>
+      <c r="E197" s="0">
+        <v>9.5484655959156548</v>
+      </c>
+      <c r="F197" s="0">
+        <v>9.0166756073197742</v>
+      </c>
+      <c r="G197" s="0">
+        <v>10.412455588711831</v>
+      </c>
+      <c r="H197" s="0">
+        <v>10.792361299750663</v>
+      </c>
+      <c r="I197" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0">
+        <v>8.1248528646309772</v>
+      </c>
+      <c r="B198" s="0">
+        <v>9.7237784139428101</v>
+      </c>
+      <c r="C198" s="0">
+        <v>10.99204756705678</v>
+      </c>
+      <c r="D198" s="0">
+        <v>10.356196805250091</v>
+      </c>
+      <c r="E198" s="0">
+        <v>9.5950601152181747</v>
+      </c>
+      <c r="F198" s="0">
+        <v>9.1034783424725401</v>
+      </c>
+      <c r="G198" s="0">
+        <v>10.501596596774208</v>
+      </c>
+      <c r="H198" s="0">
+        <v>10.798081485564436</v>
+      </c>
+      <c r="I198" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0">
+        <v>8.0051762423180914</v>
+      </c>
+      <c r="B199" s="0">
+        <v>9.6657192309263138</v>
+      </c>
+      <c r="C199" s="0">
+        <v>10.958094372415426</v>
+      </c>
+      <c r="D199" s="0">
+        <v>10.322630111693769</v>
+      </c>
+      <c r="E199" s="0">
+        <v>9.4684123594940761</v>
+      </c>
+      <c r="F199" s="0">
+        <v>9.0671905411526428</v>
+      </c>
+      <c r="G199" s="0">
+        <v>10.398748552581607</v>
+      </c>
+      <c r="H199" s="0">
+        <v>10.850917228052545</v>
+      </c>
+      <c r="I199" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0">
+        <v>8.2397177224233573</v>
+      </c>
+      <c r="B200" s="0">
+        <v>9.7826708716448483</v>
+      </c>
+      <c r="C200" s="0">
+        <v>11.119136514340413</v>
+      </c>
+      <c r="D200" s="0">
+        <v>10.428185592187491</v>
+      </c>
+      <c r="E200" s="0">
+        <v>9.6612391208949671</v>
+      </c>
+      <c r="F200" s="0">
+        <v>9.1693147678467444</v>
+      </c>
+      <c r="G200" s="0">
+        <v>10.556760901899613</v>
+      </c>
+      <c r="H200" s="0">
+        <v>10.921896263687165</v>
+      </c>
+      <c r="I200" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0">
+        <v>7.9251511577983358</v>
+      </c>
+      <c r="B201" s="0">
+        <v>9.7594710068728485</v>
+      </c>
+      <c r="C201" s="0">
+        <v>11.008376783570652</v>
+      </c>
+      <c r="D201" s="0">
+        <v>10.413388559131995</v>
+      </c>
+      <c r="E201" s="0">
+        <v>9.6249259815609616</v>
+      </c>
+      <c r="F201" s="0">
+        <v>9.2008481853671373</v>
+      </c>
+      <c r="G201" s="0">
+        <v>10.474654719936121</v>
+      </c>
+      <c r="H201" s="0">
+        <v>10.986289969340659</v>
+      </c>
+      <c r="I201" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0">
+        <v>8.2316737023733602</v>
+      </c>
+      <c r="B202" s="0">
+        <v>9.7822138175827487</v>
+      </c>
+      <c r="C202" s="0">
+        <v>11.051042486961178</v>
+      </c>
+      <c r="D202" s="0">
+        <v>10.511003033627512</v>
+      </c>
+      <c r="E202" s="0">
+        <v>9.6029105803498105</v>
+      </c>
+      <c r="F202" s="0">
+        <v>9.2618638812855405</v>
+      </c>
+      <c r="G202" s="0">
+        <v>10.60054645047418</v>
+      </c>
+      <c r="H202" s="0">
+        <v>11.011396360711419</v>
+      </c>
+      <c r="I202" s="0">
         <v>1</v>
       </c>
     </row>
@@ -4944,7 +6258,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1">
       <c r="A1">
         <v>7.334821729311944</v>
       </c>
@@ -4973,7 +6287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2">
       <c r="A2">
         <v>7.3255918527286887</v>
       </c>
@@ -5002,7 +6316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3">
       <c r="A3">
         <v>7.7048598446856351</v>
       </c>
@@ -5031,7 +6345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4">
       <c r="A4">
         <v>12.245311492437716</v>
       </c>
@@ -5060,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5">
       <c r="A5">
         <v>12.329102748028909</v>
       </c>
@@ -5089,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6">
       <c r="A6">
         <v>12.369799803665718</v>
       </c>
@@ -5118,7 +6432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7">
       <c r="A7">
         <v>13.157467324613565</v>
       </c>
@@ -5147,7 +6461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8">
       <c r="A8">
         <v>7.1207044998285252</v>
       </c>
@@ -5176,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9">
       <c r="A9">
         <v>7.4457497241992971</v>
       </c>
@@ -5205,7 +6519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10">
       <c r="A10">
         <v>7.7893207787335017</v>
       </c>
@@ -5234,7 +6548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11">
       <c r="A11">
         <v>7.5673333560295628</v>
       </c>
@@ -5263,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12">
       <c r="A12">
         <v>7.582931365080114</v>
       </c>
@@ -5292,7 +6606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13">
       <c r="A13">
         <v>15.753029845692575</v>
       </c>
@@ -5321,7 +6635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14">
       <c r="A14">
         <v>15.760156769527061</v>
       </c>
@@ -5350,7 +6664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15">
       <c r="A15">
         <v>15.807889184300763</v>
       </c>
@@ -5379,7 +6693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16">
       <c r="A16">
         <v>15.807277444495234</v>
       </c>
@@ -5408,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17">
       <c r="A17">
         <v>6.6781531031892198</v>
       </c>
@@ -5437,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18">
       <c r="A18">
         <v>6.8946941767168566</v>
       </c>
@@ -5466,7 +6780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19">
       <c r="A19">
         <v>6.7563930416330269</v>
       </c>
@@ -5495,7 +6809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20">
       <c r="A20">
         <v>6.5232891624749225</v>
       </c>
@@ -5524,7 +6838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21">
       <c r="A21">
         <v>14.299614361340851</v>
       </c>
@@ -5553,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22">
       <c r="A22">
         <v>14.403555027136651</v>
       </c>
@@ -5582,7 +6896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23">
       <c r="A23">
         <v>14.519864411177368</v>
       </c>
@@ -5611,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24">
       <c r="A24">
         <v>15.206285026653759</v>
       </c>
@@ -5640,7 +6954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25">
       <c r="A25">
         <v>14.868611354952993</v>
       </c>
@@ -5669,7 +6983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26">
       <c r="A26">
         <v>15.329245122292592</v>
       </c>
@@ -5698,7 +7012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27">
       <c r="A27">
         <v>15.326666140740633</v>
       </c>
@@ -5727,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28">
       <c r="A28">
         <v>15.380442385259611</v>
       </c>
@@ -5756,7 +7070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29">
       <c r="A29">
         <v>15.44588537299239</v>
       </c>
@@ -5785,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30">
       <c r="A30">
         <v>12.1172803779871</v>
       </c>
@@ -5814,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31">
       <c r="A31">
         <v>12.185524948824563</v>
       </c>
@@ -5843,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32">
       <c r="A32">
         <v>12.542598943179586</v>
       </c>
@@ -5872,7 +7186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33">
       <c r="A33">
         <v>12.62765673116548</v>
       </c>
@@ -5901,7 +7215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34">
       <c r="A34">
         <v>7.6711430225852917</v>
       </c>
@@ -5930,7 +7244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35">
       <c r="A35">
         <v>7.3479406949962751</v>
       </c>
@@ -5959,7 +7273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36">
       <c r="A36">
         <v>6.8638734155750578</v>
       </c>
@@ -5988,7 +7302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37">
       <c r="A37">
         <v>6.9249513927738029</v>
       </c>
